--- a/BalanceSheet/YUM_bal.xlsx
+++ b/BalanceSheet/YUM_bal.xlsx
@@ -1846,19 +1846,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-123000000.0</v>
+        <v>1061000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>23000000.0</v>
+        <v>215000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>181000000.0</v>
+        <v>1100000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-25000000.0</v>
+        <v>908000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-51000000.0</v>
+        <v>928000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>960000000.0</v>
@@ -2632,19 +2632,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>14000000.0</v>
+        <v>-514000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-33000000.0</v>
+        <v>-553000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-12000000.0</v>
+        <v>-512000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>11000000.0</v>
+        <v>-499000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-31000000.0</v>
+        <v>-501000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>-447000000.0</v>
@@ -4341,7 +4341,7 @@
         <v>10226000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>10526000000.0</v>
+        <v>9957000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>9884000000.0</v>
@@ -4468,7 +4468,7 @@
         <v>11506000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>11269000000.0</v>
+        <v>10562000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>10575000000.0</v>
